--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Nama Karyawan</t>
   </si>
@@ -53,6 +53,24 @@
     <t>sipil</t>
   </si>
   <si>
+    <t>Administrasi</t>
+  </si>
+  <si>
+    <t>13/04/2025</t>
+  </si>
+  <si>
+    <t>22:50:00 - 06:05:00</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>22:50:00 - 18:05:00</t>
+  </si>
+  <si>
     <t>Sipil</t>
   </si>
   <si>
@@ -62,13 +80,10 @@
     <t>19:21:00 - 20:22:00</t>
   </si>
   <si>
-    <t>Administrasi</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>disetujui</t>
+  </si>
+  <si>
+    <t>HRGA Staff</t>
   </si>
   <si>
     <t>furniture</t>
@@ -81,6 +96,9 @@
   </si>
   <si>
     <t>22:29:00 - 06:29:00</t>
+  </si>
+  <si>
+    <t>ditolak</t>
   </si>
   <si>
     <t>22:12:00 - 00:00:00</t>
@@ -166,16 +184,166 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
+    <xdr:ext cx="276225" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
     <xdr:ext cx="381000" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <xdr:cNvPr id="4" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -193,19 +361,169 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <xdr:cNvPr id="8" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -223,19 +541,19 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="13" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -253,19 +571,19 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <xdr:cNvPr id="14" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -283,19 +601,19 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <xdr:cNvPr id="15" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -313,19 +631,19 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <xdr:cNvPr id="16" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -343,19 +661,19 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <xdr:cNvPr id="17" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -373,19 +691,19 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <xdr:cNvPr id="18" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -403,19 +721,19 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <xdr:cNvPr id="19" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -433,19 +751,19 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <xdr:cNvPr id="20" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -463,19 +781,19 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <xdr:cNvPr id="21" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -493,19 +811,19 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <xdr:cNvPr id="22" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -523,19 +841,19 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <xdr:cNvPr id="23" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -553,19 +871,19 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <xdr:cNvPr id="24" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -583,19 +901,19 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <xdr:cNvPr id="25" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -613,19 +931,19 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <xdr:cNvPr id="26" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -643,19 +961,19 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <xdr:cNvPr id="27" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -673,19 +991,19 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <xdr:cNvPr id="28" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -703,19 +1021,19 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <xdr:cNvPr id="29" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -733,19 +1051,19 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <xdr:cNvPr id="30" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,19 +1081,19 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <xdr:cNvPr id="31" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -793,19 +1111,19 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <xdr:cNvPr id="32" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -823,19 +1141,19 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <xdr:cNvPr id="33" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -853,19 +1171,19 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <xdr:cNvPr id="34" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -883,19 +1201,19 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Foto" descr="Foto"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <xdr:cNvPr id="35" name="Foto" descr="Foto"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1202,7 +1520,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,13 +1593,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1289,25 +1607,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1318,22 +1636,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1341,25 +1659,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1370,22 +1688,74 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
